--- a/docs/Tasks.xlsx
+++ b/docs/Tasks.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="46">
   <si>
     <t>v3</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Get-MCASCredential</t>
   </si>
   <si>
-    <t>none</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -157,6 +154,9 @@
   </si>
   <si>
     <t>CmdLet</t>
+  </si>
+  <si>
+    <t>n/a</t>
   </si>
 </sst>
 </file>
@@ -506,7 +506,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -517,10 +519,10 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -543,225 +545,264 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -769,51 +810,51 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Tasks.xlsx
+++ b/docs/Tasks.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="46">
   <si>
     <t>v3</t>
   </si>
@@ -507,7 +507,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -567,6 +567,9 @@
       <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -592,6 +595,9 @@
       <c r="E5" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="F5" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -641,6 +647,9 @@
       <c r="E10" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="F10" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -714,6 +723,9 @@
       <c r="E18" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="F18" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
@@ -779,6 +791,9 @@
       <c r="E25" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="F25" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
@@ -804,6 +819,9 @@
       <c r="E27" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="F27" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
@@ -819,6 +837,9 @@
         <v>7</v>
       </c>
       <c r="E28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G28" s="3" t="s">

--- a/docs/Tasks.xlsx
+++ b/docs/Tasks.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,14 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="53">
   <si>
     <t>v3</t>
   </si>
   <si>
-    <t>Tests</t>
-  </si>
-  <si>
     <t>Help</t>
   </si>
   <si>
@@ -157,6 +154,30 @@
   </si>
   <si>
     <t>n/a</t>
+  </si>
+  <si>
+    <t>Functional</t>
+  </si>
+  <si>
+    <t>Auto-Testing</t>
+  </si>
+  <si>
+    <t>_id alias</t>
+  </si>
+  <si>
+    <t>Invoke-McasRestMethod</t>
+  </si>
+  <si>
+    <t>Remove cmdlet alias</t>
+  </si>
+  <si>
+    <t>Credential only</t>
+  </si>
+  <si>
+    <t>Formatting</t>
+  </si>
+  <si>
+    <t>Error handling</t>
   </si>
 </sst>
 </file>
@@ -215,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -223,6 +244,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,382 +528,456 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="31.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="8.7265625" style="3"/>
+    <col min="3" max="5" width="13" style="3" customWidth="1"/>
+    <col min="6" max="6" width="22.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="13" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B28" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
         <v>40</v>
       </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" t="s">
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>42</v>
-      </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H32">
+  <sortState ref="A2:O32">
     <sortCondition ref="B2:B32"/>
     <sortCondition ref="A2:A32"/>
   </sortState>

--- a/docs/Tasks.xlsx
+++ b/docs/Tasks.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="54">
   <si>
     <t>v3</t>
   </si>
@@ -178,6 +178,10 @@
   </si>
   <si>
     <t>Error handling</t>
+  </si>
+  <si>
+    <t>Verbose
+Comments</t>
   </si>
 </sst>
 </file>
@@ -528,11 +532,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I6" sqref="I6"/>
+      <selection pane="topRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -543,10 +547,10 @@
     <col min="6" max="6" width="22.36328125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.81640625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="15" width="13" style="3" customWidth="1"/>
+    <col min="9" max="16" width="13" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -577,23 +581,26 @@
       <c r="J1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -625,7 +632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -641,11 +648,11 @@
       <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -677,7 +684,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -693,11 +700,11 @@
       <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -705,7 +712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -713,7 +720,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -721,7 +728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -729,7 +736,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -745,11 +752,11 @@
       <c r="E10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L10" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -757,7 +764,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -765,7 +772,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -773,7 +780,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -781,7 +788,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -789,7 +796,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -797,7 +804,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -805,7 +812,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -821,11 +828,11 @@
       <c r="E18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L18" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -833,7 +840,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -841,7 +848,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -849,7 +856,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -857,7 +864,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -865,7 +872,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -873,7 +880,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -889,11 +896,11 @@
       <c r="E25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K25" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L25" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -901,7 +908,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -917,11 +924,11 @@
       <c r="E27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L27" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -937,14 +944,14 @@
       <c r="E28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K28" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N28" s="3" t="s">
+      <c r="L28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O28" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -952,7 +959,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -960,7 +967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -968,7 +975,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -977,7 +984,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:O32">
+  <sortState ref="A2:P32">
     <sortCondition ref="B2:B32"/>
     <sortCondition ref="A2:A32"/>
   </sortState>

--- a/docs/Tasks.xlsx
+++ b/docs/Tasks.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="54">
   <si>
     <t>v3</t>
   </si>
@@ -534,9 +534,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -907,6 +907,9 @@
       <c r="B26" t="s">
         <v>9</v>
       </c>
+      <c r="C26" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" t="s">

--- a/docs/Tasks.xlsx
+++ b/docs/Tasks.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="54">
   <si>
     <t>v3</t>
   </si>
@@ -205,7 +205,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,6 +215,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -240,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -251,6 +257,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -532,11 +542,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D26" sqref="D26"/>
+      <selection pane="topRight" activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -547,10 +557,10 @@
     <col min="6" max="6" width="22.36328125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.81640625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16" width="13" style="3" customWidth="1"/>
+    <col min="9" max="17" width="13" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -581,26 +591,27 @@
       <c r="J1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="2"/>
+      <c r="L1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -632,7 +643,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -648,11 +659,11 @@
       <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="M3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -684,7 +695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -700,11 +711,11 @@
       <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="M5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -712,7 +723,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -720,7 +731,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -728,7 +739,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -736,7 +747,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -752,11 +763,11 @@
       <c r="E10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="M10" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -764,7 +775,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -772,7 +783,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -780,7 +791,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -788,7 +799,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -796,7 +807,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -804,7 +815,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -812,7 +823,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -828,11 +839,11 @@
       <c r="E18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="M18" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -840,7 +851,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -848,7 +859,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -856,7 +867,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -864,7 +875,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -872,7 +883,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -880,7 +891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -896,22 +907,50 @@
       <c r="E25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L25" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="M25" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -927,11 +966,11 @@
       <c r="E27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="M27" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -947,14 +986,14 @@
       <c r="E28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L28" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="O28" s="3" t="s">
+      <c r="M28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P28" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -962,7 +1001,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -970,7 +1009,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -978,7 +1017,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -987,7 +1026,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:P32">
+  <sortState ref="A2:Q32">
     <sortCondition ref="B2:B32"/>
     <sortCondition ref="A2:A32"/>
   </sortState>

--- a/docs/Tasks.xlsx
+++ b/docs/Tasks.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="55">
   <si>
     <t>v3</t>
   </si>
@@ -182,6 +182,9 @@
   <si>
     <t>Verbose
 Comments</t>
+  </si>
+  <si>
+    <t>Get-MCASAppPermission</t>
   </si>
 </sst>
 </file>
@@ -542,11 +545,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K26" sqref="K26"/>
+      <selection pane="topRight" activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -972,7 +975,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
         <v>9</v>
@@ -986,24 +989,48 @@
       <c r="E28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M28" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="P28" s="3" t="s">
-        <v>44</v>
+      <c r="F28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B29" t="s">
         <v>9</v>
       </c>
+      <c r="C29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B30" t="s">
         <v>9</v>
@@ -1011,24 +1038,37 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
         <v>40</v>
       </c>
     </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:Q32">
-    <sortCondition ref="B2:B32"/>
-    <sortCondition ref="A2:A32"/>
+  <sortState ref="A2:Q33">
+    <sortCondition ref="B2:B33"/>
+    <sortCondition ref="A2:A33"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/docs/Tasks.xlsx
+++ b/docs/Tasks.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="55">
   <si>
     <t>v3</t>
   </si>
@@ -549,7 +549,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K28" sqref="K28"/>
+      <selection pane="topRight" activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -886,12 +886,47 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+    <row r="24" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="5" t="s">
         <v>9</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
@@ -948,10 +983,16 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
+      <c r="N26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
+      <c r="Q26" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" t="s">

--- a/docs/Tasks.xlsx
+++ b/docs/Tasks.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="55">
   <si>
     <t>v3</t>
   </si>
@@ -549,7 +549,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q26" sqref="Q26"/>
+      <selection pane="topRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -726,13 +726,34 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="7" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="C7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
@@ -923,7 +944,9 @@
       <c r="N24" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="O24" s="6"/>
+      <c r="O24" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="P24" s="6"/>
       <c r="Q24" s="6" t="s">
         <v>6</v>

--- a/docs/Tasks.xlsx
+++ b/docs/Tasks.xlsx
@@ -1,8 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABBF718-7D04-4188-910D-F70F75210B6F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="55">
   <si>
     <t>v3</t>
   </si>
@@ -90,9 +91,6 @@
     <t>Get-MCASConfiguration</t>
   </si>
   <si>
-    <t>Export-MCASPortalSettings</t>
-  </si>
-  <si>
     <t>Discovery</t>
   </si>
   <si>
@@ -118,9 +116,6 @@
   </si>
   <si>
     <t>Get-MCASStream</t>
-  </si>
-  <si>
-    <t>Export-MCASBlockScript</t>
   </si>
   <si>
     <t>Data Enrichment</t>
@@ -185,6 +180,12 @@
   </si>
   <si>
     <t>Get-MCASAppPermission</t>
+  </si>
+  <si>
+    <t>Get-MCASPortalSettings</t>
+  </si>
+  <si>
+    <t>Get-MCASBlockScriptContent</t>
   </si>
 </sst>
 </file>
@@ -549,7 +550,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F7" sqref="F7"/>
+      <selection pane="topRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -565,7 +566,7 @@
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
@@ -580,35 +581,35 @@
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="K1" s="2"/>
       <c r="L1" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>4</v>
@@ -648,7 +649,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -765,18 +766,18 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>6</v>
@@ -793,66 +794,97 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>6</v>
@@ -869,34 +901,34 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
@@ -1039,7 +1071,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
         <v>9</v>
@@ -1089,7 +1121,7 @@
         <v>6</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
@@ -1110,23 +1142,23 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Tasks.xlsx
+++ b/docs/Tasks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABBF718-7D04-4188-910D-F70F75210B6F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C335C8F-CBC7-4840-B385-DE4482AE5CE2}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="55">
   <si>
     <t>v3</t>
   </si>
@@ -161,9 +161,6 @@
   </si>
   <si>
     <t>Invoke-McasRestMethod</t>
-  </si>
-  <si>
-    <t>Remove cmdlet alias</t>
   </si>
   <si>
     <t>Credential only</t>
@@ -186,6 +183,9 @@
   </si>
   <si>
     <t>Get-MCASBlockScriptContent</t>
+  </si>
+  <si>
+    <t>No cmdlet alias</t>
   </si>
 </sst>
 </file>
@@ -270,7 +270,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -546,11 +557,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J14" sqref="J14"/>
+      <selection pane="topRight" activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -561,10 +572,10 @@
     <col min="6" max="6" width="22.36328125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.81640625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="17" width="13" style="3" customWidth="1"/>
+    <col min="9" max="16" width="13" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -584,38 +595,37 @@
         <v>46</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="O1" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -646,10 +656,16 @@
       <c r="J2" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="L2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -663,11 +679,32 @@
       <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="M3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -698,8 +735,14 @@
       <c r="J4" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="L4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -715,11 +758,32 @@
       <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="F5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="M5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -727,7 +791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -749,22 +813,55 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
+      <c r="L7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>19</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -772,7 +869,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -788,11 +885,11 @@
       <c r="E10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="K10" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -800,7 +897,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -808,7 +905,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -816,9 +913,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>23</v>
@@ -848,14 +945,17 @@
         <v>6</v>
       </c>
       <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
+      <c r="L14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -863,7 +963,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -871,7 +971,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -879,7 +979,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -895,11 +995,11 @@
       <c r="E18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="K18" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -907,7 +1007,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -915,7 +1015,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -923,7 +1023,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -931,7 +1031,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -939,7 +1039,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>14</v>
       </c>
@@ -970,21 +1070,22 @@
       <c r="J24" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="O24" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="K24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -1000,11 +1101,32 @@
       <c r="E25" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="F25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="M25" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>10</v>
       </c>
@@ -1036,20 +1158,19 @@
         <v>6</v>
       </c>
       <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="O26" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="L26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -1065,13 +1186,34 @@
       <c r="E27" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="F27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="M27" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
         <v>9</v>
@@ -1101,7 +1243,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1117,14 +1259,14 @@
       <c r="E29" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="P29" s="3" t="s">
+      <c r="K29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O29" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -1132,7 +1274,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -1140,7 +1282,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -1158,14 +1300,19 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:Q33">
+  <sortState ref="A2:P33">
     <sortCondition ref="B2:B33"/>
     <sortCondition ref="A2:A33"/>
   </sortState>
+  <conditionalFormatting sqref="C1:P1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"x"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>

--- a/docs/Tasks.xlsx
+++ b/docs/Tasks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C335C8F-CBC7-4840-B385-DE4482AE5CE2}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE81577-1EF4-4165-8849-667A35CD8FC7}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="57">
   <si>
     <t>v3</t>
   </si>
@@ -186,6 +186,12 @@
   </si>
   <si>
     <t>No cmdlet alias</t>
+  </si>
+  <si>
+    <t>Get-MCASIPTag</t>
+  </si>
+  <si>
+    <t>Self-Pipelining</t>
   </si>
 </sst>
 </file>
@@ -209,7 +215,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,12 +225,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -262,15 +262,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -557,11 +563,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L25" sqref="L25"/>
+      <selection pane="topRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -573,9 +579,10 @@
     <col min="7" max="7" width="13.81640625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.54296875" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="16" width="13" style="3" customWidth="1"/>
+    <col min="17" max="17" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -607,25 +614,28 @@
         <v>49</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q1" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -656,14 +666,14 @@
       <c r="J2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>42</v>
+      <c r="K2" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -698,13 +708,13 @@
         <v>6</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -735,14 +745,14 @@
       <c r="J4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>42</v>
+      <c r="K4" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -777,53 +787,96 @@
         <v>6</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -854,14 +907,14 @@
       <c r="J8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>42</v>
+      <c r="K8" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -869,9 +922,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
         <v>32</v>
@@ -885,87 +938,114 @@
       <c r="E10" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="F10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="K10" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="M10" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>53</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>30</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P15"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
@@ -973,7 +1053,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
@@ -981,35 +1061,59 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
       </c>
+      <c r="C19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
@@ -1017,7 +1121,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>23</v>
@@ -1025,7 +1129,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
@@ -1033,61 +1137,23 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>13</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
         <v>9</v>
@@ -1120,59 +1186,60 @@
         <v>6</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="M25" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="5" t="s">
+      <c r="N25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P25"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M26" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6" t="s">
-        <v>6</v>
+      <c r="C26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
         <v>9</v>
@@ -1187,10 +1254,10 @@
         <v>6</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>6</v>
@@ -1199,21 +1266,22 @@
         <v>6</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="N27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P27"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
         <v>9</v>
@@ -1228,10 +1296,10 @@
         <v>6</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>6</v>
@@ -1240,12 +1308,21 @@
         <v>6</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>6</v>
+        <v>42</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
         <v>9</v>
@@ -1259,24 +1336,48 @@
       <c r="E29" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>42</v>
+      <c r="F29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B30" t="s">
         <v>9</v>
       </c>
+      <c r="C30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B31" t="s">
         <v>9</v>
@@ -1284,31 +1385,77 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>40</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B34" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>39</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>51</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="A2:P33">
-    <sortCondition ref="B2:B33"/>
-    <sortCondition ref="A2:A33"/>
+  <sortState ref="A2:P35">
+    <sortCondition ref="B2:B35"/>
+    <sortCondition ref="A2:A35"/>
   </sortState>
-  <conditionalFormatting sqref="C1:P1048576">
+  <conditionalFormatting sqref="C37:P1048576 C1:P35">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q1:Q1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>

--- a/docs/Tasks.xlsx
+++ b/docs/Tasks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE81577-1EF4-4165-8849-667A35CD8FC7}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE34DCA-26C7-421D-9AE5-47ED5FF7AB5A}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="57">
   <si>
     <t>v3</t>
   </si>
@@ -567,7 +567,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C9" sqref="C9"/>
+      <selection pane="topRight" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -921,6 +921,36 @@
       <c r="B9" t="s">
         <v>32</v>
       </c>
+      <c r="C9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -959,6 +989,9 @@
       <c r="M10" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="Q10" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -976,8 +1009,32 @@
       <c r="E11" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="F11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="L11" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">

--- a/docs/Tasks.xlsx
+++ b/docs/Tasks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE34DCA-26C7-421D-9AE5-47ED5FF7AB5A}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A859CB27-6B60-44DC-AB9D-568B7AF3A7C0}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="57">
   <si>
     <t>v3</t>
   </si>
@@ -121,12 +121,6 @@
     <t>Data Enrichment</t>
   </si>
   <si>
-    <t>New-MCASIPRange</t>
-  </si>
-  <si>
-    <t>Get-MCASIPRange</t>
-  </si>
-  <si>
     <t>Set-MCASIPRange</t>
   </si>
   <si>
@@ -164,9 +158,6 @@
   </si>
   <si>
     <t>Credential only</t>
-  </si>
-  <si>
-    <t>Formatting</t>
   </si>
   <si>
     <t>Error handling</t>
@@ -192,6 +183,15 @@
   </si>
   <si>
     <t>Self-Pipelining</t>
+  </si>
+  <si>
+    <t>Formatting &amp; code style</t>
+  </si>
+  <si>
+    <t>New-MCASIPRangeSet</t>
+  </si>
+  <si>
+    <t>Get-MCASIPRangeSet</t>
   </si>
 </sst>
 </file>
@@ -215,7 +215,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,6 +225,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -252,15 +258,15 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -567,26 +573,26 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A14" sqref="A14"/>
+      <selection pane="topRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="31.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13" style="3" customWidth="1"/>
-    <col min="6" max="6" width="22.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16" width="13" style="3" customWidth="1"/>
-    <col min="17" max="17" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16" width="13" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:17" s="4" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -598,41 +604,41 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="K1" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>50</v>
+      <c r="O1" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
@@ -642,76 +648,76 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>42</v>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>42</v>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
@@ -721,35 +727,35 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>42</v>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
@@ -759,38 +765,38 @@
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>42</v>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
@@ -800,40 +806,40 @@
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q6" s="3" t="s">
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -844,34 +850,34 @@
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M7" s="3" t="s">
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="P7"/>
@@ -883,171 +889,195 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>42</v>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M9" s="3" t="s">
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>42</v>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>42</v>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>33</v>
+      <c r="A12" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="B12" t="s">
         <v>32</v>
       </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
         <v>32</v>
@@ -1055,7 +1085,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
@@ -1063,40 +1093,40 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>42</v>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="P15"/>
     </row>
@@ -1131,40 +1161,40 @@
       <c r="B19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O19" s="3" t="s">
+      <c r="C19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O19" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1215,40 +1245,40 @@
       <c r="B25" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N25" s="3" t="s">
+      <c r="C25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N25" s="1" t="s">
         <v>6</v>
       </c>
       <c r="P25"/>
@@ -1260,38 +1290,38 @@
       <c r="B26" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>42</v>
+      <c r="C26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.35">
@@ -1301,37 +1331,37 @@
       <c r="B27" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N27" s="3" t="s">
+      <c r="C27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N27" s="1" t="s">
         <v>6</v>
       </c>
       <c r="P27"/>
@@ -1343,69 +1373,69 @@
       <c r="B28" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>42</v>
+      <c r="C28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J29" s="3" t="s">
+      <c r="C29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1416,20 +1446,20 @@
       <c r="B30" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="P30" s="3" t="s">
-        <v>42</v>
+      <c r="C30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
@@ -1450,56 +1480,56 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>42</v>
+      <c r="C33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Tasks.xlsx
+++ b/docs/Tasks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A859CB27-6B60-44DC-AB9D-568B7AF3A7C0}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC754F6D-E629-44F0-BE88-BEEBB4110E91}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="58">
   <si>
     <t>v3</t>
   </si>
@@ -119,12 +119,6 @@
   </si>
   <si>
     <t>Data Enrichment</t>
-  </si>
-  <si>
-    <t>Set-MCASIPRange</t>
-  </si>
-  <si>
-    <t>Remove-MCASIPRange</t>
   </si>
   <si>
     <t>Get-MCASUserGroup</t>
@@ -192,13 +186,22 @@
   </si>
   <si>
     <t>Get-MCASIPRangeSet</t>
+  </si>
+  <si>
+    <t>Set-MCASIPRangeSet</t>
+  </si>
+  <si>
+    <t>Remove-MCASIPRangeSet</t>
+  </si>
+  <si>
+    <t>Other Pipelining</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,8 +217,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,6 +242,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -253,10 +268,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -268,21 +284,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -569,11 +579,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A9" sqref="A9"/>
+      <selection pane="topRight" activeCell="D13" sqref="D13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -586,11 +596,12 @@
     <col min="8" max="8" width="18.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16" width="13" style="1" customWidth="1"/>
     <col min="17" max="17" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="4" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" s="4" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>7</v>
@@ -605,43 +616,46 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="K1" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -676,12 +690,12 @@
         <v>6</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -717,10 +731,10 @@
         <v>6</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -755,10 +769,10 @@
         <v>6</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -796,10 +810,10 @@
         <v>6</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -843,7 +857,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -882,7 +896,7 @@
       </c>
       <c r="P7"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -917,12 +931,12 @@
         <v>6</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
         <v>32</v>
@@ -957,10 +971,13 @@
       <c r="M9" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q9" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
         <v>32</v>
@@ -992,16 +1009,19 @@
       <c r="K10" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="L10" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="M10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
         <v>32</v>
@@ -1030,22 +1050,10 @@
       <c r="J11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>55</v>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>54</v>
       </c>
       <c r="B12" t="s">
         <v>32</v>
@@ -1074,26 +1082,53 @@
       <c r="J12" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>34</v>
+      <c r="K12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="B13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
@@ -1126,11 +1161,11 @@
         <v>6</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P15"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1171,10 +1206,10 @@
         <v>6</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>6</v>
@@ -1192,7 +1227,7 @@
         <v>6</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>6</v>
@@ -1321,7 +1356,7 @@
         <v>6</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.35">
@@ -1383,10 +1418,10 @@
         <v>6</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>6</v>
@@ -1395,7 +1430,7 @@
         <v>6</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>6</v>
@@ -1404,12 +1439,12 @@
         <v>6</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
         <v>9</v>
@@ -1459,7 +1494,7 @@
         <v>6</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
@@ -1480,7 +1515,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
         <v>9</v>
@@ -1513,23 +1548,23 @@
         <v>6</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1537,13 +1572,8 @@
     <sortCondition ref="B2:B35"/>
     <sortCondition ref="A2:A35"/>
   </sortState>
-  <conditionalFormatting sqref="C37:P1048576 C1:P35">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="C37:P1048576 C13:P35 Q13:Q1048576 C1:Q12">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/docs/Tasks.xlsx
+++ b/docs/Tasks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC754F6D-E629-44F0-BE88-BEEBB4110E91}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB51B72-BE11-4B55-824F-CAB1933C3CFF}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -225,7 +225,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -235,12 +235,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,9 +264,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -280,11 +274,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -583,7 +576,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D13" sqref="D13:E13"/>
+      <selection pane="topRight" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -599,11 +592,11 @@
     <col min="18" max="18" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="4" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:18" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -651,7 +644,7 @@
       <c r="Q1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1090,7 +1083,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+      <c r="A13" t="s">
         <v>55</v>
       </c>
       <c r="B13" t="s">
@@ -1099,8 +1092,8 @@
       <c r="C13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="1" t="s">
         <v>6</v>
       </c>
@@ -1116,7 +1109,7 @@
       <c r="J13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="5"/>
+      <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" t="s">

--- a/docs/Tasks.xlsx
+++ b/docs/Tasks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB51B72-BE11-4B55-824F-CAB1933C3CFF}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238CFE49-91AC-464E-8B8F-EADD87A98F48}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="58">
   <si>
     <t>v3</t>
   </si>
@@ -182,26 +182,26 @@
     <t>Formatting &amp; code style</t>
   </si>
   <si>
-    <t>New-MCASIPRangeSet</t>
-  </si>
-  <si>
-    <t>Get-MCASIPRangeSet</t>
-  </si>
-  <si>
-    <t>Set-MCASIPRangeSet</t>
-  </si>
-  <si>
-    <t>Remove-MCASIPRangeSet</t>
-  </si>
-  <si>
     <t>Other Pipelining</t>
+  </si>
+  <si>
+    <t>New-MCASSubnetCollection</t>
+  </si>
+  <si>
+    <t>Get-MCASSubnetCollection</t>
+  </si>
+  <si>
+    <t>Set-MCASSubnetCollection</t>
+  </si>
+  <si>
+    <t>Remove-MCASSubnetCollection</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,8 +224,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,6 +248,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -262,11 +274,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -274,6 +287,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -281,8 +295,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -576,7 +591,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A13" sqref="A13"/>
+      <selection pane="topRight" activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -592,11 +607,11 @@
     <col min="18" max="18" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:18" s="4" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -644,8 +659,8 @@
       <c r="Q1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>57</v>
+      <c r="R1" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -1014,7 +1029,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
         <v>32</v>
@@ -1046,7 +1061,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
         <v>32</v>
@@ -1084,7 +1099,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
         <v>32</v>
@@ -1092,8 +1107,8 @@
       <c r="C13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
       <c r="F13" s="1" t="s">
         <v>6</v>
       </c>
@@ -1109,15 +1124,38 @@
       <c r="J13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="4"/>
+      <c r="K13" s="5"/>
+      <c r="R13" s="3"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
       </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R14" s="3"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" t="s">

--- a/docs/Tasks.xlsx
+++ b/docs/Tasks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238CFE49-91AC-464E-8B8F-EADD87A98F48}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A8F7BF-CB20-4E4F-87E9-E74A378DCC79}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="58">
   <si>
     <t>v3</t>
   </si>
@@ -176,9 +176,6 @@
     <t>Get-MCASIPTag</t>
   </si>
   <si>
-    <t>Self-Pipelining</t>
-  </si>
-  <si>
     <t>Formatting &amp; code style</t>
   </si>
   <si>
@@ -195,6 +192,9 @@
   </si>
   <si>
     <t>Remove-MCASSubnetCollection</t>
+  </si>
+  <si>
+    <t>SameNoun-Pipelining</t>
   </si>
 </sst>
 </file>
@@ -591,7 +591,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P10" sqref="P10"/>
+      <selection pane="topRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -633,7 +633,7 @@
         <v>49</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>44</v>
@@ -657,10 +657,10 @@
         <v>40</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -1029,7 +1029,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
         <v>32</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
         <v>32</v>
@@ -1099,7 +1099,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
         <v>32</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
@@ -1137,6 +1137,12 @@
       <c r="C14" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="D14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="F14" s="1" t="s">
         <v>6</v>
       </c>
@@ -1152,8 +1158,14 @@
       <c r="J14" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="K14" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="M14" s="1" t="s">
         <v>38</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="R14" s="3"/>
     </row>
@@ -1603,7 +1615,7 @@
     <sortCondition ref="B2:B35"/>
     <sortCondition ref="A2:A35"/>
   </sortState>
-  <conditionalFormatting sqref="C37:P1048576 C13:P35 Q13:Q1048576 C1:Q12">
+  <conditionalFormatting sqref="C37:P1048576 C13:P35 C1:Q12 Q13:Q1048576">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"x"</formula>
     </cfRule>

--- a/docs/Tasks.xlsx
+++ b/docs/Tasks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A8F7BF-CB20-4E4F-87E9-E74A378DCC79}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660537E9-64F5-495B-A9E9-A154354F8D46}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="59">
   <si>
     <t>v3</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>SameNoun-Pipelining</t>
+  </si>
+  <si>
+    <t>from Get-MCASAppId</t>
   </si>
 </sst>
 </file>
@@ -591,7 +594,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C16" sqref="C16"/>
+      <selection pane="topRight" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -604,7 +607,7 @@
     <col min="8" max="8" width="18.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16" width="13" style="1" customWidth="1"/>
     <col min="17" max="17" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.6328125" customWidth="1"/>
+    <col min="18" max="18" width="19.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="4" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.35">
@@ -1214,6 +1217,45 @@
       </c>
       <c r="B16" t="s">
         <v>23</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">

--- a/docs/Tasks.xlsx
+++ b/docs/Tasks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660537E9-64F5-495B-A9E9-A154354F8D46}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D07E43-9700-4BDE-838E-DE52A38F633B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="59">
   <si>
     <t>v3</t>
   </si>
@@ -594,7 +594,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A16" sqref="A16"/>
+      <selection pane="topRight" activeCell="A16" sqref="A16:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -602,10 +602,13 @@
     <col min="1" max="1" width="31.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="13" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16" width="13" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="13" style="1" customWidth="1"/>
     <col min="17" max="17" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="19.08984375" bestFit="1" customWidth="1"/>
   </cols>
@@ -627,16 +630,16 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>43</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>44</v>
@@ -1265,6 +1268,39 @@
       <c r="B17" t="s">
         <v>23</v>
       </c>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
@@ -1291,7 +1327,7 @@
         <v>6</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>38</v>
@@ -1300,7 +1336,7 @@
         <v>6</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>6</v>
@@ -1325,6 +1361,39 @@
       <c r="B20" t="s">
         <v>23</v>
       </c>
+      <c r="C20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
@@ -1503,7 +1572,7 @@
         <v>6</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>38</v>
@@ -1512,7 +1581,7 @@
         <v>6</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>38</v>
@@ -1657,7 +1726,7 @@
     <sortCondition ref="B2:B35"/>
     <sortCondition ref="A2:A35"/>
   </sortState>
-  <conditionalFormatting sqref="C37:P1048576 C13:P35 C1:Q12 Q13:Q1048576">
+  <conditionalFormatting sqref="Q13:Q1048576 C37:P1048576 J13:P35 J1:Q12 C1:I35">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"x"</formula>
     </cfRule>

--- a/docs/Tasks.xlsx
+++ b/docs/Tasks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D07E43-9700-4BDE-838E-DE52A38F633B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6679F2F7-BFF9-471D-B47A-4A41F16148B8}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="59">
   <si>
     <t>v3</t>
   </si>
@@ -235,7 +235,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,6 +256,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -282,7 +288,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -297,6 +303,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -594,7 +601,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A16" sqref="A16:A21"/>
+      <selection pane="topRight" activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1303,11 +1310,41 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">

--- a/docs/Tasks.xlsx
+++ b/docs/Tasks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6679F2F7-BFF9-471D-B47A-4A41F16148B8}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B755592-182B-4E8A-B3C7-2209308380F2}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="59">
   <si>
     <t>v3</t>
   </si>
@@ -235,7 +235,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,12 +256,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -288,7 +282,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -303,7 +297,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -601,7 +594,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N18" sqref="N18"/>
+      <selection pane="topRight" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1310,7 +1303,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
+      <c r="A18" t="s">
         <v>25</v>
       </c>
       <c r="B18" t="s">
@@ -1438,6 +1431,36 @@
       </c>
       <c r="B21" t="s">
         <v>23</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">

--- a/docs/Tasks.xlsx
+++ b/docs/Tasks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B755592-182B-4E8A-B3C7-2209308380F2}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62331B43-D47A-4019-877D-70F6DFEB3212}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="59">
   <si>
     <t>v3</t>
   </si>
@@ -594,7 +594,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A21" sqref="A21"/>
+      <selection pane="topRight" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1261,7 +1261,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1463,15 +1463,48 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>26</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1479,7 +1512,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -1487,7 +1520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -1532,7 +1565,7 @@
       </c>
       <c r="P25"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -1573,7 +1606,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -1615,7 +1648,7 @@
       </c>
       <c r="P27"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -1656,7 +1689,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -1688,7 +1721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -1711,7 +1744,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -1719,7 +1752,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>11</v>
       </c>

--- a/docs/Tasks.xlsx
+++ b/docs/Tasks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62331B43-D47A-4019-877D-70F6DFEB3212}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951F8556-4CCA-47D1-9120-71959CB111E2}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="60">
   <si>
     <t>v3</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>from Get-MCASAppId</t>
+  </si>
+  <si>
+    <t>ConvertFrom-MCASTimestamp</t>
   </si>
 </sst>
 </file>
@@ -235,7 +238,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,6 +259,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -282,7 +291,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -297,6 +306,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -590,11 +601,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R35"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A22" sqref="A22"/>
+      <selection pane="topRight" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -670,7 +681,7 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B2" t="s">
@@ -708,7 +719,7 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B3" t="s">
@@ -749,7 +760,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B4" t="s">
@@ -787,7 +798,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B5" t="s">
@@ -872,7 +883,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B7" t="s">
@@ -949,7 +960,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B9" t="s">
@@ -990,7 +1001,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B10" t="s">
@@ -1034,7 +1045,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B11" t="s">
@@ -1066,7 +1077,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" s="6" t="s">
         <v>54</v>
       </c>
       <c r="B12" t="s">
@@ -1104,7 +1115,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" s="7" t="s">
         <v>55</v>
       </c>
       <c r="B13" t="s">
@@ -1134,7 +1145,7 @@
       <c r="R13" s="3"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B14" t="s">
@@ -1303,7 +1314,7 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B18" t="s">
@@ -1341,7 +1352,7 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B19" t="s">
@@ -1566,7 +1577,7 @@
       <c r="P25"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="A26" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B26" t="s">
@@ -1690,7 +1701,7 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="A29" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B29" t="s">
@@ -1761,7 +1772,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="A33" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B33" t="s">
@@ -1812,6 +1823,14 @@
       </c>
       <c r="B35" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A36" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Tasks.xlsx
+++ b/docs/Tasks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951F8556-4CCA-47D1-9120-71959CB111E2}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B266B562-F7D7-40A3-9DFD-959CF0197DDD}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="60">
   <si>
     <t>v3</t>
   </si>
@@ -1816,6 +1816,31 @@
       <c r="B34" t="s">
         <v>34</v>
       </c>
+      <c r="C34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K34" s="5"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" t="s">

--- a/docs/Tasks.xlsx
+++ b/docs/Tasks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B266B562-F7D7-40A3-9DFD-959CF0197DDD}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EB496A-83A5-4490-8AC5-0FB7DE86C7C1}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="60">
   <si>
     <t>v3</t>
   </si>
@@ -125,9 +125,6 @@
   </si>
   <si>
     <t>Reporting</t>
-  </si>
-  <si>
-    <t>Get-MCASReportList</t>
   </si>
   <si>
     <t>Get-MCASReport</t>
@@ -201,6 +198,9 @@
   </si>
   <si>
     <t>ConvertFrom-MCASTimestamp</t>
+  </si>
+  <si>
+    <t>Get-MCASReportContent</t>
   </si>
 </sst>
 </file>
@@ -314,7 +314,57 @@
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -605,7 +655,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C35" sqref="C35"/>
+      <selection pane="topRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -626,7 +676,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="4" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>7</v>
@@ -641,43 +691,43 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="K1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -715,12 +765,12 @@
         <v>6</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -756,7 +806,7 @@
         <v>6</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
@@ -794,7 +844,7 @@
         <v>6</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
@@ -835,7 +885,7 @@
         <v>6</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
@@ -956,12 +1006,12 @@
         <v>6</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
         <v>32</v>
@@ -997,7 +1047,7 @@
         <v>6</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
@@ -1041,12 +1091,12 @@
         <v>6</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
         <v>32</v>
@@ -1078,7 +1128,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
         <v>32</v>
@@ -1116,7 +1166,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
         <v>32</v>
@@ -1146,7 +1196,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
@@ -1179,7 +1229,7 @@
         <v>6</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>6</v>
@@ -1188,7 +1238,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
@@ -1221,7 +1271,7 @@
         <v>6</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P15"/>
     </row>
@@ -1266,10 +1316,10 @@
         <v>6</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
@@ -1371,13 +1421,13 @@
         <v>6</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>6</v>
@@ -1389,7 +1439,7 @@
         <v>6</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>6</v>
@@ -1471,7 +1521,7 @@
         <v>6</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
@@ -1614,7 +1664,7 @@
         <v>6</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
@@ -1679,16 +1729,16 @@
         <v>6</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>6</v>
@@ -1697,12 +1747,12 @@
         <v>6</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
         <v>9</v>
@@ -1752,7 +1802,7 @@
         <v>6</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
@@ -1770,10 +1820,46 @@
       <c r="B32" t="s">
         <v>9</v>
       </c>
+      <c r="C32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
         <v>9</v>
@@ -1806,12 +1892,12 @@
         <v>6</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
@@ -1844,18 +1930,73 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="B35" t="s">
         <v>34</v>
       </c>
+      <c r="C35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K35" s="5"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B36" t="s">
         <v>9</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1863,8 +2004,33 @@
     <sortCondition ref="B2:B35"/>
     <sortCondition ref="A2:A35"/>
   </sortState>
-  <conditionalFormatting sqref="Q13:Q1048576 C37:P1048576 J13:P35 J1:Q12 C1:I35">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+  <conditionalFormatting sqref="C1:Q35 C37:Q1048576">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>"x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36:F36 K36:L36 H36 N36:Q36">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G36">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J36">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M36">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/docs/Tasks.xlsx
+++ b/docs/Tasks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EB496A-83A5-4490-8AC5-0FB7DE86C7C1}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8918CC-05F7-415E-99FB-886C65661E37}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="60">
   <si>
     <t>v3</t>
   </si>
@@ -655,7 +655,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C24" sqref="C24"/>
+      <selection pane="topRight" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1579,6 +1579,39 @@
       </c>
       <c r="B24" t="s">
         <v>9</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">

--- a/docs/Tasks.xlsx
+++ b/docs/Tasks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8918CC-05F7-415E-99FB-886C65661E37}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCED52B-2371-4489-9AC4-AE582A8617D1}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="60">
   <si>
     <t>v3</t>
   </si>
@@ -238,7 +238,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,12 +259,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -291,7 +285,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -306,7 +300,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -655,7 +648,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A24" sqref="A24"/>
+      <selection pane="topRight" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -731,7 +724,7 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="B2" t="s">
@@ -769,7 +762,7 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="A3" t="s">
         <v>46</v>
       </c>
       <c r="B3" t="s">
@@ -810,7 +803,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
       <c r="B4" t="s">
@@ -848,7 +841,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+      <c r="A5" t="s">
         <v>22</v>
       </c>
       <c r="B5" t="s">
@@ -933,7 +926,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+      <c r="A7" t="s">
         <v>20</v>
       </c>
       <c r="B7" t="s">
@@ -1010,7 +1003,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+      <c r="A9" t="s">
         <v>49</v>
       </c>
       <c r="B9" t="s">
@@ -1051,7 +1044,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+      <c r="A10" t="s">
         <v>33</v>
       </c>
       <c r="B10" t="s">
@@ -1095,7 +1088,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
+      <c r="A11" t="s">
         <v>52</v>
       </c>
       <c r="B11" t="s">
@@ -1127,7 +1120,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
+      <c r="A12" t="s">
         <v>53</v>
       </c>
       <c r="B12" t="s">
@@ -1165,7 +1158,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>54</v>
       </c>
       <c r="B13" t="s">
@@ -1195,7 +1188,7 @@
       <c r="R13" s="3"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
+      <c r="A14" t="s">
         <v>55</v>
       </c>
       <c r="B14" t="s">
@@ -1364,7 +1357,7 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
+      <c r="A18" t="s">
         <v>25</v>
       </c>
       <c r="B18" t="s">
@@ -1402,7 +1395,7 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
+      <c r="A19" t="s">
         <v>27</v>
       </c>
       <c r="B19" t="s">
@@ -1660,7 +1653,7 @@
       <c r="P25"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A26" s="6" t="s">
+      <c r="A26" t="s">
         <v>15</v>
       </c>
       <c r="B26" t="s">
@@ -1784,7 +1777,7 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A29" s="6" t="s">
+      <c r="A29" t="s">
         <v>45</v>
       </c>
       <c r="B29" t="s">
@@ -1831,8 +1824,29 @@
       <c r="E30" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="F30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="L30" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="P30" s="1" t="s">
         <v>37</v>
@@ -1891,7 +1905,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A33" s="6" t="s">
+      <c r="A33" t="s">
         <v>45</v>
       </c>
       <c r="B33" t="s">
@@ -1929,7 +1943,7 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="A34" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B34" t="s">
@@ -1962,7 +1976,7 @@
       <c r="K34" s="5"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+      <c r="A35" s="6" t="s">
         <v>59</v>
       </c>
       <c r="B35" t="s">
@@ -1995,7 +2009,7 @@
       <c r="K35" s="5"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A36" s="6" t="s">
+      <c r="A36" t="s">
         <v>58</v>
       </c>
       <c r="B36" t="s">

--- a/docs/Tasks.xlsx
+++ b/docs/Tasks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCED52B-2371-4489-9AC4-AE582A8617D1}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF359C3-672D-4E13-A909-9D553E3DAADB}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="63">
   <si>
     <t>v3</t>
   </si>
@@ -201,6 +201,15 @@
   </si>
   <si>
     <t>Get-MCASReportContent</t>
+  </si>
+  <si>
+    <t>from Get-MCASAlert</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Needs to be revamped with bulk abilities</t>
   </si>
 </sst>
 </file>
@@ -644,11 +653,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R36"/>
+  <dimension ref="A1:S36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A21" sqref="A21"/>
+      <selection pane="topRight" activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -665,9 +674,10 @@
     <col min="12" max="16" width="13" style="1" customWidth="1"/>
     <col min="17" max="17" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="4" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" s="4" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>36</v>
       </c>
@@ -722,8 +732,11 @@
       <c r="R1" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S1" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -761,7 +774,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -802,7 +815,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -840,7 +853,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -881,7 +894,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -925,7 +938,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -964,7 +977,7 @@
       </c>
       <c r="P7"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1002,7 +1015,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -1043,7 +1056,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -1087,7 +1100,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -1119,7 +1132,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -1157,7 +1170,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>54</v>
       </c>
@@ -1187,7 +1200,7 @@
       <c r="K13" s="5"/>
       <c r="R13" s="3"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>55</v>
       </c>
@@ -1229,7 +1242,7 @@
       </c>
       <c r="R14" s="3"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -1268,7 +1281,7 @@
       </c>
       <c r="P15"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1315,7 +1328,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1356,7 +1369,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1394,7 +1407,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1438,7 +1451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -1479,7 +1492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1517,7 +1530,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1558,7 +1571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1566,7 +1579,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -1607,7 +1620,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -1652,7 +1665,7 @@
       </c>
       <c r="P25"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -1693,7 +1706,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -1735,7 +1748,7 @@
       </c>
       <c r="P27"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -1776,7 +1789,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -1808,7 +1821,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -1852,7 +1865,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -1860,7 +1873,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -1902,6 +1915,12 @@
       </c>
       <c r="Q32" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="R32" t="s">
+        <v>60</v>
+      </c>
+      <c r="S32" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">

--- a/docs/Tasks.xlsx
+++ b/docs/Tasks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF359C3-672D-4E13-A909-9D553E3DAADB}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB59412A-5096-411C-9F9F-F13EC60764BB}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="64">
   <si>
     <t>v3</t>
   </si>
@@ -210,6 +210,9 @@
   </si>
   <si>
     <t>Needs to be revamped with bulk abilities</t>
+  </si>
+  <si>
+    <t>have not tested the property name collision handling</t>
   </si>
 </sst>
 </file>
@@ -657,7 +660,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M33" sqref="M33"/>
+      <selection pane="topRight" activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -674,7 +677,7 @@
     <col min="12" max="16" width="13" style="1" customWidth="1"/>
     <col min="17" max="17" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="19.08984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="45.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="4" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.35">
@@ -1619,6 +1622,9 @@
       <c r="M24" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="S24" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
@@ -1871,6 +1877,45 @@
       </c>
       <c r="B31" t="s">
         <v>9</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S31" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.35">

--- a/docs/Tasks.xlsx
+++ b/docs/Tasks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB59412A-5096-411C-9F9F-F13EC60764BB}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3461963B-53F1-4E0E-A185-A021CB51F56D}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="64">
   <si>
     <t>v3</t>
   </si>
@@ -660,7 +660,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N31" sqref="N31"/>
+      <selection pane="topRight" activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1580,6 +1580,39 @@
       </c>
       <c r="B23" t="s">
         <v>23</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">

--- a/docs/Tasks.xlsx
+++ b/docs/Tasks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3461963B-53F1-4E0E-A185-A021CB51F56D}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD56392B-D0A5-44D4-B813-638DA7829CFE}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -660,7 +660,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K23" sqref="K23"/>
+      <selection pane="topRight" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/docs/Tasks.xlsx
+++ b/docs/Tasks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3765515-18A8-49A2-BCF3-1DE0F497A60F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07CF7DF-A8E2-41EE-A9F3-D3099B0CF0FE}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="70">
   <si>
     <t>v3</t>
   </si>
@@ -751,7 +751,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M13" sqref="M13"/>
+      <selection pane="topRight" activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -868,6 +868,9 @@
       <c r="L2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="M2" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="N2" s="1" t="s">
         <v>37</v>
       </c>
@@ -1077,6 +1080,9 @@
       <c r="L7" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="M7" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="N7" s="1" t="s">
         <v>37</v>
       </c>
@@ -2026,6 +2032,9 @@
         <v>6</v>
       </c>
       <c r="L30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M30" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N30" s="1" t="s">

--- a/docs/Tasks.xlsx
+++ b/docs/Tasks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07CF7DF-A8E2-41EE-A9F3-D3099B0CF0FE}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5123E5-04F9-48EB-85C0-06F975B9E337}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/docs/Tasks.xlsx
+++ b/docs/Tasks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5123E5-04F9-48EB-85C0-06F975B9E337}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E4FF40-9A19-43D3-B1A5-985D64C98C77}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="70">
   <si>
     <t>v3</t>
   </si>
@@ -751,7 +751,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M31" sqref="M31"/>
+      <selection pane="topRight" activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -912,6 +912,9 @@
       <c r="L3" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="M3" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="N3" s="1" t="s">
         <v>37</v>
       </c>
@@ -1121,6 +1124,9 @@
       <c r="L8" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="M8" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="N8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1295,6 +1301,9 @@
       <c r="L12" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="M12" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="N12" s="1" t="s">
         <v>37</v>
       </c>
@@ -1800,6 +1809,9 @@
         <v>6</v>
       </c>
       <c r="L24" s="5"/>
+      <c r="M24" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" t="s">

--- a/docs/Tasks.xlsx
+++ b/docs/Tasks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E4FF40-9A19-43D3-B1A5-985D64C98C77}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3223CAA6-FF30-4236-B6AC-4327852CF1D8}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="70">
   <si>
     <t>v3</t>
   </si>
@@ -340,67 +340,7 @@
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -751,7 +691,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M20" sqref="M20"/>
+      <selection pane="topRight" activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1888,6 +1828,9 @@
       <c r="L26" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="M26" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="N26" s="1" t="s">
         <v>6</v>
       </c>
@@ -2011,6 +1954,12 @@
       <c r="K29" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="L29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
@@ -2131,6 +2080,9 @@
       <c r="L32" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="M32" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="N32" s="1" t="s">
         <v>37</v>
       </c>
@@ -2179,7 +2131,7 @@
       <c r="N33" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="T33" t="s">
+      <c r="T33" s="6" t="s">
         <v>69</v>
       </c>
     </row>

--- a/docs/Tasks.xlsx
+++ b/docs/Tasks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3223CAA6-FF30-4236-B6AC-4327852CF1D8}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E217B212-8E44-4597-A032-1903844B4CCE}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="71">
   <si>
     <t>v3</t>
   </si>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t>uploadAsSnapshot works, but continuous does not</t>
+  </si>
+  <si>
+    <t>Import-MCASDynamicData</t>
   </si>
 </sst>
 </file>
@@ -687,11 +690,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T43"/>
+  <dimension ref="A1:T44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M29" sqref="M29"/>
+      <selection pane="topRight" activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2231,6 +2234,11 @@
     <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Tasks.xlsx
+++ b/docs/Tasks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E217B212-8E44-4597-A032-1903844B4CCE}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AAB0A4-482D-4F79-85B6-958D5741D3E3}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="73">
   <si>
     <t>v3</t>
   </si>
@@ -234,6 +234,12 @@
   </si>
   <si>
     <t>Import-MCASDynamicData</t>
+  </si>
+  <si>
+    <t>to Get-MCASReportContent</t>
+  </si>
+  <si>
+    <t>from Get-MCASReport</t>
   </si>
 </sst>
 </file>
@@ -694,7 +700,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A44" sqref="A44"/>
+      <selection pane="topRight" activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -711,7 +717,7 @@
     <col min="12" max="12" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="17" width="13" style="1" customWidth="1"/>
     <col min="18" max="18" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="45.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1688,7 +1694,7 @@
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
+      <c r="A23" t="s">
         <v>35</v>
       </c>
       <c r="B23" t="s">
@@ -1718,10 +1724,21 @@
       <c r="K23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L23" s="5"/>
+      <c r="L23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S23" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
+      <c r="A24" t="s">
         <v>59</v>
       </c>
       <c r="B24" t="s">
@@ -1751,9 +1768,17 @@
       <c r="K24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L24" s="5"/>
+      <c r="L24" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="M24" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S24" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.35">
